--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Gm13306-Ackr2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Gm13306-Ackr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,19 +76,10 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
-    <t>ECs</t>
-  </si>
-  <si>
     <t>FAPs</t>
   </si>
   <si>
-    <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
+    <t>Resolving-Mac</t>
   </si>
   <si>
     <t>Gm13306</t>
@@ -452,7 +443,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,31 +516,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.04481599999999999</v>
+        <v>0.51311</v>
       </c>
       <c r="H2">
-        <v>0.134448</v>
+        <v>1.53933</v>
       </c>
       <c r="I2">
-        <v>0.04093859636836211</v>
+        <v>0.9158753391403684</v>
       </c>
       <c r="J2">
-        <v>0.04093859636836211</v>
+        <v>0.9158753391403684</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -570,16 +561,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.01174268832</v>
+        <v>0.1344450822</v>
       </c>
       <c r="R2">
-        <v>0.10568419488</v>
+        <v>1.2100057398</v>
       </c>
       <c r="S2">
-        <v>0.04093859636836211</v>
+        <v>0.9158753391403684</v>
       </c>
       <c r="T2">
-        <v>0.04093859636836211</v>
+        <v>0.9158753391403684</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,31 +578,31 @@
         <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.51311</v>
+        <v>0.04713</v>
       </c>
       <c r="H3">
-        <v>1.53933</v>
+        <v>0.14139</v>
       </c>
       <c r="I3">
-        <v>0.4687166008249348</v>
+        <v>0.08412466085963159</v>
       </c>
       <c r="J3">
-        <v>0.4687166008249349</v>
+        <v>0.08412466085963159</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -632,202 +623,16 @@
         <v>1</v>
       </c>
       <c r="Q3">
-        <v>0.1344450822</v>
+        <v>0.0123490026</v>
       </c>
       <c r="R3">
-        <v>1.2100057398</v>
+        <v>0.1111410234</v>
       </c>
       <c r="S3">
-        <v>0.4687166008249348</v>
+        <v>0.08412466085963159</v>
       </c>
       <c r="T3">
-        <v>0.4687166008249349</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20">
-      <c r="A4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G4">
-        <v>0.1674846666666666</v>
-      </c>
-      <c r="H4">
-        <v>0.502454</v>
-      </c>
-      <c r="I4">
-        <v>0.1529941799035241</v>
-      </c>
-      <c r="J4">
-        <v>0.1529941799035242</v>
-      </c>
-      <c r="K4">
-        <v>2</v>
-      </c>
-      <c r="L4">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M4">
-        <v>0.26202</v>
-      </c>
-      <c r="N4">
-        <v>0.78606</v>
-      </c>
-      <c r="O4">
-        <v>1</v>
-      </c>
-      <c r="P4">
-        <v>1</v>
-      </c>
-      <c r="Q4">
-        <v>0.04388433235999999</v>
-      </c>
-      <c r="R4">
-        <v>0.3949589912399999</v>
-      </c>
-      <c r="S4">
-        <v>0.1529941799035241</v>
-      </c>
-      <c r="T4">
-        <v>0.1529941799035242</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
-      <c r="A5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G5">
-        <v>0.3354936666666666</v>
-      </c>
-      <c r="H5">
-        <v>1.006481</v>
-      </c>
-      <c r="I5">
-        <v>0.3064673287176117</v>
-      </c>
-      <c r="J5">
-        <v>0.3064673287176118</v>
-      </c>
-      <c r="K5">
-        <v>2</v>
-      </c>
-      <c r="L5">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M5">
-        <v>0.26202</v>
-      </c>
-      <c r="N5">
-        <v>0.78606</v>
-      </c>
-      <c r="O5">
-        <v>1</v>
-      </c>
-      <c r="P5">
-        <v>1</v>
-      </c>
-      <c r="Q5">
-        <v>0.08790605053999999</v>
-      </c>
-      <c r="R5">
-        <v>0.7911544548599999</v>
-      </c>
-      <c r="S5">
-        <v>0.3064673287176117</v>
-      </c>
-      <c r="T5">
-        <v>0.3064673287176118</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G6">
-        <v>0.03380833333333334</v>
-      </c>
-      <c r="H6">
-        <v>0.101425</v>
-      </c>
-      <c r="I6">
-        <v>0.03088329418556711</v>
-      </c>
-      <c r="J6">
-        <v>0.03088329418556712</v>
-      </c>
-      <c r="K6">
-        <v>2</v>
-      </c>
-      <c r="L6">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M6">
-        <v>0.26202</v>
-      </c>
-      <c r="N6">
-        <v>0.78606</v>
-      </c>
-      <c r="O6">
-        <v>1</v>
-      </c>
-      <c r="P6">
-        <v>1</v>
-      </c>
-      <c r="Q6">
-        <v>0.008858459500000001</v>
-      </c>
-      <c r="R6">
-        <v>0.0797261355</v>
-      </c>
-      <c r="S6">
-        <v>0.03088329418556711</v>
-      </c>
-      <c r="T6">
-        <v>0.03088329418556712</v>
+        <v>0.08412466085963159</v>
       </c>
     </row>
   </sheetData>
